--- a/maps/坐标转换.xlsx
+++ b/maps/坐标转换.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangyucong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SmartCar\RosCar\drug-deliverer\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50665CD9-B2B9-45F2-85B5-F6D8E6BD57A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E1F71-B17D-4DA6-9BEF-A97E7B0B7906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24300" yWindow="2145" windowWidth="20730" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -384,11 +384,11 @@
         <v>49.5</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C9" si="0">(A4-62.6)*0.05</f>
+        <f t="shared" ref="C4:C10" si="0">(A4-62.6)*0.05</f>
         <v>1.37</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D9" si="1">(110.1-B4)*0.05</f>
+        <f t="shared" ref="D4:D10" si="1">(110.1-B4)*0.05</f>
         <v>3.03</v>
       </c>
     </row>
@@ -470,6 +470,22 @@
       <c r="D9">
         <f t="shared" si="1"/>
         <v>0.62999999999999978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>34.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-0.28000000000000008</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>3.78</v>
       </c>
     </row>
   </sheetData>
